--- a/data/pca/factorExposure/factorExposure_2009-06-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-06-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01641464815974092</v>
+        <v>0.0164712570940473</v>
       </c>
       <c r="C2">
-        <v>0.001380744332286033</v>
+        <v>-0.001040381370183314</v>
       </c>
       <c r="D2">
-        <v>0.00843208137342691</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009022427247112965</v>
+      </c>
+      <c r="E2">
+        <v>-0.001372752335015259</v>
+      </c>
+      <c r="F2">
+        <v>0.01202315856982055</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09046761939253271</v>
+        <v>0.09216281871341389</v>
       </c>
       <c r="C4">
-        <v>0.01962788389871068</v>
+        <v>-0.01474845688018721</v>
       </c>
       <c r="D4">
-        <v>0.07637459522372458</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08162106220886071</v>
+      </c>
+      <c r="E4">
+        <v>-0.02611968147649824</v>
+      </c>
+      <c r="F4">
+        <v>-0.03199895437542025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-1.048234605523102e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.165989634730183e-06</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-2.307449501959107e-05</v>
+      </c>
+      <c r="E5">
+        <v>-2.045647829584066e-05</v>
+      </c>
+      <c r="F5">
+        <v>0.0001070540265707917</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1526525578777116</v>
+        <v>0.1613089110648682</v>
       </c>
       <c r="C6">
-        <v>0.02907457975957775</v>
+        <v>-0.02853537125200391</v>
       </c>
       <c r="D6">
-        <v>-0.03764509214010962</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02679762758211071</v>
+      </c>
+      <c r="E6">
+        <v>-0.009134120920562898</v>
+      </c>
+      <c r="F6">
+        <v>-0.04139565868383382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.05990036772376287</v>
+        <v>0.06187704515580167</v>
       </c>
       <c r="C7">
-        <v>0.001700339233400665</v>
+        <v>0.001622717504501815</v>
       </c>
       <c r="D7">
-        <v>0.04862568336399221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0529382148101747</v>
+      </c>
+      <c r="E7">
+        <v>-0.01261029552098753</v>
+      </c>
+      <c r="F7">
+        <v>-0.04944245084808765</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06218116293772352</v>
+        <v>0.05757879524631718</v>
       </c>
       <c r="C8">
-        <v>-0.01042898232180893</v>
+        <v>0.01235649730962365</v>
       </c>
       <c r="D8">
-        <v>0.02629901996712126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.0307102617616995</v>
+      </c>
+      <c r="E8">
+        <v>-0.01752543183215914</v>
+      </c>
+      <c r="F8">
+        <v>0.02573791381245462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06994929959511685</v>
+        <v>0.07148391923774378</v>
       </c>
       <c r="C9">
-        <v>0.01587787786038889</v>
+        <v>-0.01045067135161165</v>
       </c>
       <c r="D9">
-        <v>0.07730093342304285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08491376149277768</v>
+      </c>
+      <c r="E9">
+        <v>-0.02353005017181629</v>
+      </c>
+      <c r="F9">
+        <v>-0.04809478154001653</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08485743732390022</v>
+        <v>0.08729368666124271</v>
       </c>
       <c r="C10">
-        <v>0.0146303505738733</v>
+        <v>-0.02147709636836896</v>
       </c>
       <c r="D10">
-        <v>-0.1663860345607702</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1599695794097299</v>
+      </c>
+      <c r="E10">
+        <v>0.03293467488522613</v>
+      </c>
+      <c r="F10">
+        <v>0.05876274520491521</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09080147728933333</v>
+        <v>0.0876417761521435</v>
       </c>
       <c r="C11">
-        <v>0.01695549891807213</v>
+        <v>-0.01136536396518956</v>
       </c>
       <c r="D11">
-        <v>0.1107879315327685</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1177203475291316</v>
+      </c>
+      <c r="E11">
+        <v>-0.04778715040770209</v>
+      </c>
+      <c r="F11">
+        <v>-0.02466182946574994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09599711824230742</v>
+        <v>0.09017408497981201</v>
       </c>
       <c r="C12">
-        <v>0.0150512273946713</v>
+        <v>-0.008583142488869511</v>
       </c>
       <c r="D12">
-        <v>0.1174945521681302</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1322950217393875</v>
+      </c>
+      <c r="E12">
+        <v>-0.0472594335063902</v>
+      </c>
+      <c r="F12">
+        <v>-0.03178037248510057</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.0444860398016565</v>
+        <v>0.04358483246056041</v>
       </c>
       <c r="C13">
-        <v>0.006482565225256193</v>
+        <v>-0.002605471088310192</v>
       </c>
       <c r="D13">
-        <v>0.04409022209098738</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05383832826974051</v>
+      </c>
+      <c r="E13">
+        <v>0.0003390768266686761</v>
+      </c>
+      <c r="F13">
+        <v>-0.004596219439488536</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01917289810846464</v>
+        <v>0.02354024296782632</v>
       </c>
       <c r="C14">
-        <v>0.01512567344736145</v>
+        <v>-0.013692175237401</v>
       </c>
       <c r="D14">
-        <v>0.02908668328811181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03213003223705244</v>
+      </c>
+      <c r="E14">
+        <v>-0.0178064005564173</v>
+      </c>
+      <c r="F14">
+        <v>-0.01246652883090357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03369992396849904</v>
+        <v>0.03361800558893662</v>
       </c>
       <c r="C15">
-        <v>0.007492898278632439</v>
+        <v>-0.005294497523167419</v>
       </c>
       <c r="D15">
-        <v>0.04345426847659526</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04667102002302908</v>
+      </c>
+      <c r="E15">
+        <v>-0.007692529881346229</v>
+      </c>
+      <c r="F15">
+        <v>-0.02977687467678463</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07451266416309958</v>
+        <v>0.07246209321723478</v>
       </c>
       <c r="C16">
-        <v>0.007458474708247212</v>
+        <v>-0.001520896733132812</v>
       </c>
       <c r="D16">
-        <v>0.1154020474096165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1283935770232073</v>
+      </c>
+      <c r="E16">
+        <v>-0.06179901082466548</v>
+      </c>
+      <c r="F16">
+        <v>-0.02756769637758683</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.0004858697056157031</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.000390361799402688</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.002376425818402601</v>
+      </c>
+      <c r="E17">
+        <v>-0.00161060688008559</v>
+      </c>
+      <c r="F17">
+        <v>0.002779161601429334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.02029340876773821</v>
+        <v>0.04025888531479745</v>
       </c>
       <c r="C18">
-        <v>-0.002716666945978822</v>
+        <v>0.00264937132241475</v>
       </c>
       <c r="D18">
-        <v>0.0226042380433234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01564819090022404</v>
+      </c>
+      <c r="E18">
+        <v>0.006404943651495622</v>
+      </c>
+      <c r="F18">
+        <v>0.01013588417090671</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06306780741925094</v>
+        <v>0.06225348550520723</v>
       </c>
       <c r="C20">
-        <v>0.005286663282124553</v>
+        <v>-0.0009715141575303625</v>
       </c>
       <c r="D20">
-        <v>0.06981909913774213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07889952134198278</v>
+      </c>
+      <c r="E20">
+        <v>-0.05752911036984128</v>
+      </c>
+      <c r="F20">
+        <v>-0.02976291858680067</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03806904973947253</v>
+        <v>0.04045274319447325</v>
       </c>
       <c r="C21">
-        <v>0.009302028967978394</v>
+        <v>-0.006312758837747397</v>
       </c>
       <c r="D21">
-        <v>0.03386505874395481</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03676820332015303</v>
+      </c>
+      <c r="E21">
+        <v>0.00224327071388467</v>
+      </c>
+      <c r="F21">
+        <v>0.02566564364626336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04140586696304492</v>
+        <v>0.04429187939737114</v>
       </c>
       <c r="C22">
-        <v>0.001996107132596387</v>
+        <v>-0.001057716392043389</v>
       </c>
       <c r="D22">
-        <v>-0.0004630635973138813</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.00787497843389638</v>
+      </c>
+      <c r="E22">
+        <v>-0.0382713122948863</v>
+      </c>
+      <c r="F22">
+        <v>0.04815743005560604</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04136850515776742</v>
+        <v>0.04426767999468934</v>
       </c>
       <c r="C23">
-        <v>0.001985636107966339</v>
+        <v>-0.001048594536755661</v>
       </c>
       <c r="D23">
-        <v>-0.0004392768462119208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.00788913656117002</v>
+      </c>
+      <c r="E23">
+        <v>-0.03845400091381054</v>
+      </c>
+      <c r="F23">
+        <v>0.04812909964293078</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08199154466880246</v>
+        <v>0.07839325872330061</v>
       </c>
       <c r="C24">
-        <v>0.008078307879209197</v>
+        <v>-0.002307443783170505</v>
       </c>
       <c r="D24">
-        <v>0.1156597593218466</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1205334361438573</v>
+      </c>
+      <c r="E24">
+        <v>-0.04956297507437699</v>
+      </c>
+      <c r="F24">
+        <v>-0.0298810505904826</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08685643920633361</v>
+        <v>0.08338890862158156</v>
       </c>
       <c r="C25">
-        <v>0.01031092932192151</v>
+        <v>-0.005008300801753707</v>
       </c>
       <c r="D25">
-        <v>0.1022151524856678</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.10975687478676</v>
+      </c>
+      <c r="E25">
+        <v>-0.03283375793130455</v>
+      </c>
+      <c r="F25">
+        <v>-0.0274933319339839</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05765067782549906</v>
+        <v>0.05972216363649536</v>
       </c>
       <c r="C26">
-        <v>0.01788466256048169</v>
+        <v>-0.01450270823496334</v>
       </c>
       <c r="D26">
-        <v>0.03146975764818472</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.0436332921620006</v>
+      </c>
+      <c r="E26">
+        <v>-0.02908559766779318</v>
+      </c>
+      <c r="F26">
+        <v>0.007396846239635425</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1341130477903276</v>
+        <v>0.1423368098853643</v>
       </c>
       <c r="C28">
-        <v>0.01343191407706798</v>
+        <v>-0.02324380753955041</v>
       </c>
       <c r="D28">
-        <v>-0.2662243152485289</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.26052083620636</v>
+      </c>
+      <c r="E28">
+        <v>0.06851524178778787</v>
+      </c>
+      <c r="F28">
+        <v>-0.003379957358995023</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02543899493221818</v>
+        <v>0.02847763398916606</v>
       </c>
       <c r="C29">
-        <v>0.009722308286092041</v>
+        <v>-0.008839314983333752</v>
       </c>
       <c r="D29">
-        <v>0.02831433250506404</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03018522150706016</v>
+      </c>
+      <c r="E29">
+        <v>-0.0128601168278796</v>
+      </c>
+      <c r="F29">
+        <v>0.01346645267890358</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06159050457181176</v>
+        <v>0.05877078241867987</v>
       </c>
       <c r="C30">
-        <v>0.008597226302971578</v>
+        <v>-0.002923088560733995</v>
       </c>
       <c r="D30">
-        <v>0.07553553763000691</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08706923384845476</v>
+      </c>
+      <c r="E30">
+        <v>-0.01381299255524192</v>
+      </c>
+      <c r="F30">
+        <v>-0.07957379023769486</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05072008738575799</v>
+        <v>0.05156881727955308</v>
       </c>
       <c r="C31">
-        <v>0.01738704956901349</v>
+        <v>-0.01616715433126104</v>
       </c>
       <c r="D31">
-        <v>0.02152919172682939</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02449994552996173</v>
+      </c>
+      <c r="E31">
+        <v>-0.02849745250661577</v>
+      </c>
+      <c r="F31">
+        <v>-2.43827721251445e-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04798496696656823</v>
+        <v>0.05244508451419266</v>
       </c>
       <c r="C32">
-        <v>0.002352118201283998</v>
+        <v>0.001437872735418142</v>
       </c>
       <c r="D32">
-        <v>0.02583593347059307</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.0339631002745361</v>
+      </c>
+      <c r="E32">
+        <v>-0.03322499943799569</v>
+      </c>
+      <c r="F32">
+        <v>-0.003778213344747653</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09035891249485305</v>
+        <v>0.08937781314354161</v>
       </c>
       <c r="C33">
-        <v>0.01308586769189288</v>
+        <v>-0.007081481664461721</v>
       </c>
       <c r="D33">
-        <v>0.08818073453898677</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1031777649367098</v>
+      </c>
+      <c r="E33">
+        <v>-0.04640896983945004</v>
+      </c>
+      <c r="F33">
+        <v>-0.04368490765680476</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06885718924978433</v>
+        <v>0.06738231241909638</v>
       </c>
       <c r="C34">
-        <v>0.01553830596895854</v>
+        <v>-0.01053535659177772</v>
       </c>
       <c r="D34">
-        <v>0.09709198509309304</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1094035934352632</v>
+      </c>
+      <c r="E34">
+        <v>-0.03574981592503558</v>
+      </c>
+      <c r="F34">
+        <v>-0.03498734746760656</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02522209310498221</v>
+        <v>0.02666162991678421</v>
       </c>
       <c r="C35">
-        <v>0.00368119767301357</v>
+        <v>-0.003073591368826085</v>
       </c>
       <c r="D35">
-        <v>0.00834340075174311</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01211826484237593</v>
+      </c>
+      <c r="E35">
+        <v>-0.01269994915112552</v>
+      </c>
+      <c r="F35">
+        <v>-0.0003109095001531833</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02502264546300333</v>
+        <v>0.0279171947638728</v>
       </c>
       <c r="C36">
-        <v>0.008014045885719594</v>
+        <v>-0.006919483506297598</v>
       </c>
       <c r="D36">
-        <v>0.03859335988176607</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.038949012547028</v>
+      </c>
+      <c r="E36">
+        <v>-0.0168817564408577</v>
+      </c>
+      <c r="F36">
+        <v>-0.01408897101029367</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.00139660091672842</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0008478105244132556</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002838344142070802</v>
+      </c>
+      <c r="E37">
+        <v>-3.317830277244412e-06</v>
+      </c>
+      <c r="F37">
+        <v>0.00180229935602178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1124885100689584</v>
+        <v>0.1010783819068221</v>
       </c>
       <c r="C39">
-        <v>0.02308190447542671</v>
+        <v>-0.0162359240868762</v>
       </c>
       <c r="D39">
-        <v>0.1481328750510288</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1508565570499842</v>
+      </c>
+      <c r="E39">
+        <v>-0.05920313679657502</v>
+      </c>
+      <c r="F39">
+        <v>-0.02228918260301163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03806962224032499</v>
+        <v>0.04347215442780482</v>
       </c>
       <c r="C40">
-        <v>0.009257984493535727</v>
+        <v>-0.007661630004053614</v>
       </c>
       <c r="D40">
-        <v>0.02366985116431069</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03303782384884689</v>
+      </c>
+      <c r="E40">
+        <v>-0.002245072276634267</v>
+      </c>
+      <c r="F40">
+        <v>0.01660252858489914</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02489450047598888</v>
+        <v>0.02712563479533892</v>
       </c>
       <c r="C41">
-        <v>0.00733020518287762</v>
+        <v>-0.006789946616366744</v>
       </c>
       <c r="D41">
-        <v>0.009318086779402629</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01104709845118463</v>
+      </c>
+      <c r="E41">
+        <v>-0.01191640690241198</v>
+      </c>
+      <c r="F41">
+        <v>0.007531082493479536</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04213583355195251</v>
+        <v>0.04001695500562547</v>
       </c>
       <c r="C43">
-        <v>0.008292691874361028</v>
+        <v>-0.007641428724466989</v>
       </c>
       <c r="D43">
-        <v>0.01760438800138587</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01946972328890616</v>
+      </c>
+      <c r="E43">
+        <v>-0.02543495872906249</v>
+      </c>
+      <c r="F43">
+        <v>0.01567630017280478</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.06978469781251913</v>
+        <v>0.07865621928006412</v>
       </c>
       <c r="C44">
-        <v>0.02444574981808498</v>
+        <v>-0.01968269603633593</v>
       </c>
       <c r="D44">
-        <v>0.09775829758731643</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09682179747771728</v>
+      </c>
+      <c r="E44">
+        <v>-0.06224991138441383</v>
+      </c>
+      <c r="F44">
+        <v>-0.1678607590926337</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02193307890982931</v>
+        <v>0.02489315382596941</v>
       </c>
       <c r="C46">
-        <v>0.00458413586126839</v>
+        <v>-0.003785680705741368</v>
       </c>
       <c r="D46">
-        <v>0.009929445160732811</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01285913916179059</v>
+      </c>
+      <c r="E46">
+        <v>-0.02720440069918487</v>
+      </c>
+      <c r="F46">
+        <v>0.005486405271686556</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05223160796177499</v>
+        <v>0.05164673547216493</v>
       </c>
       <c r="C47">
-        <v>0.005028793175286495</v>
+        <v>-0.004384510238510543</v>
       </c>
       <c r="D47">
-        <v>0.006497706148735533</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.0109307253497099</v>
+      </c>
+      <c r="E47">
+        <v>-0.02250935798691332</v>
+      </c>
+      <c r="F47">
+        <v>0.03175095167457669</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04819891960335289</v>
+        <v>0.05086821712244056</v>
       </c>
       <c r="C48">
-        <v>0.005014207931284667</v>
+        <v>-0.002294363009688192</v>
       </c>
       <c r="D48">
-        <v>0.04658805799069608</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05018529474013399</v>
+      </c>
+      <c r="E48">
+        <v>0.004629234195560964</v>
+      </c>
+      <c r="F48">
+        <v>-0.01270865333127966</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1998208234881478</v>
+        <v>0.2002485897364282</v>
       </c>
       <c r="C49">
-        <v>0.0219500257692855</v>
+        <v>-0.02070743422373189</v>
       </c>
       <c r="D49">
-        <v>-0.01320798231639686</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.0045202267432346</v>
+      </c>
+      <c r="E49">
+        <v>-0.03318351834038814</v>
+      </c>
+      <c r="F49">
+        <v>-0.04937603705449147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04982704792349289</v>
+        <v>0.05182104750459424</v>
       </c>
       <c r="C50">
-        <v>0.01319499234381095</v>
+        <v>-0.01180663626367645</v>
       </c>
       <c r="D50">
-        <v>0.02018798088539298</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02303582229807161</v>
+      </c>
+      <c r="E50">
+        <v>-0.02969551285975675</v>
+      </c>
+      <c r="F50">
+        <v>-0.009891035632521724</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1558181486672414</v>
+        <v>0.14918294863152</v>
       </c>
       <c r="C52">
-        <v>0.02084650046121101</v>
+        <v>-0.01910822348770617</v>
       </c>
       <c r="D52">
-        <v>0.04272961903188705</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04180574869575646</v>
+      </c>
+      <c r="E52">
+        <v>-0.02223500228401824</v>
+      </c>
+      <c r="F52">
+        <v>-0.04266894135799101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1748024915346083</v>
+        <v>0.1694049786957834</v>
       </c>
       <c r="C53">
-        <v>0.02156551778906993</v>
+        <v>-0.02200058851717659</v>
       </c>
       <c r="D53">
-        <v>0.006577409201360286</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005240694876585501</v>
+      </c>
+      <c r="E53">
+        <v>-0.0296714339172161</v>
+      </c>
+      <c r="F53">
+        <v>-0.07543667967733568</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.0168541371750801</v>
+        <v>0.01954406074851405</v>
       </c>
       <c r="C54">
-        <v>0.01230709521419287</v>
+        <v>-0.01089452260366246</v>
       </c>
       <c r="D54">
-        <v>0.03024640503504592</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03245268300922428</v>
+      </c>
+      <c r="E54">
+        <v>-0.02089627757614635</v>
+      </c>
+      <c r="F54">
+        <v>0.002759762294612428</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1175171396134374</v>
+        <v>0.1158915337285126</v>
       </c>
       <c r="C55">
-        <v>0.01898779592228399</v>
+        <v>-0.01910506336985464</v>
       </c>
       <c r="D55">
-        <v>0.00491972102398858</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.007859438001659239</v>
+      </c>
+      <c r="E55">
+        <v>-0.02515074245659218</v>
+      </c>
+      <c r="F55">
+        <v>-0.04712451730016282</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.181165065876366</v>
+        <v>0.1758806041564734</v>
       </c>
       <c r="C56">
-        <v>0.01936305515869392</v>
+        <v>-0.0200670018951348</v>
       </c>
       <c r="D56">
-        <v>-0.005372971116481552</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.00349989441292562</v>
+      </c>
+      <c r="E56">
+        <v>-0.03190245201634956</v>
+      </c>
+      <c r="F56">
+        <v>-0.05559237710710789</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.0493785691735011</v>
+        <v>0.0468676647881814</v>
       </c>
       <c r="C58">
-        <v>0.005558623168934501</v>
+        <v>-0.0003807627336933043</v>
       </c>
       <c r="D58">
-        <v>0.06421470650435719</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07602432620485625</v>
+      </c>
+      <c r="E58">
+        <v>-0.03709920871215212</v>
+      </c>
+      <c r="F58">
+        <v>0.03687950413350729</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1618467530008047</v>
+        <v>0.1672468594342994</v>
       </c>
       <c r="C59">
-        <v>0.01514809589356822</v>
+        <v>-0.02361835060226067</v>
       </c>
       <c r="D59">
-        <v>-0.2245228987351836</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2180066965908637</v>
+      </c>
+      <c r="E59">
+        <v>0.04958250394658137</v>
+      </c>
+      <c r="F59">
+        <v>0.03943402130606519</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2382493848093215</v>
+        <v>0.2302869732206076</v>
       </c>
       <c r="C60">
-        <v>0.003112851665725769</v>
+        <v>-0.0004361411153181973</v>
       </c>
       <c r="D60">
-        <v>0.03717369577230314</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03934763273047253</v>
+      </c>
+      <c r="E60">
+        <v>-0.006704077411749901</v>
+      </c>
+      <c r="F60">
+        <v>-0.006013560096161603</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08378297917631648</v>
+        <v>0.07708676098925188</v>
       </c>
       <c r="C61">
-        <v>0.01732242499128513</v>
+        <v>-0.01154152782228463</v>
       </c>
       <c r="D61">
-        <v>0.1083279838554845</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.115438687271929</v>
+      </c>
+      <c r="E61">
+        <v>-0.03767777420609211</v>
+      </c>
+      <c r="F61">
+        <v>-0.008845364892866775</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1726600018886548</v>
+        <v>0.1693333730105806</v>
       </c>
       <c r="C62">
-        <v>0.02337112042261098</v>
+        <v>-0.0228674909635644</v>
       </c>
       <c r="D62">
-        <v>1.877986804197516e-05</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005716111325816635</v>
+      </c>
+      <c r="E62">
+        <v>-0.03395616171495091</v>
+      </c>
+      <c r="F62">
+        <v>-0.04198204756257828</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04158259758494508</v>
+        <v>0.04567572484466956</v>
       </c>
       <c r="C63">
-        <v>0.005521956743728588</v>
+        <v>-0.001741390527701363</v>
       </c>
       <c r="D63">
-        <v>0.0486992593057961</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06011144507691249</v>
+      </c>
+      <c r="E63">
+        <v>-0.02403768452515084</v>
+      </c>
+      <c r="F63">
+        <v>-0.0004945745211368471</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.113654800883975</v>
+        <v>0.1110067653446725</v>
       </c>
       <c r="C64">
-        <v>0.01600819859856515</v>
+        <v>-0.01291234455212821</v>
       </c>
       <c r="D64">
-        <v>0.03319710370469415</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.0427430961671199</v>
+      </c>
+      <c r="E64">
+        <v>-0.0239935500808475</v>
+      </c>
+      <c r="F64">
+        <v>-0.02598019344834313</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1438192371638616</v>
+        <v>0.1516773336670299</v>
       </c>
       <c r="C65">
-        <v>0.03518250579339086</v>
+        <v>-0.03565772090587138</v>
       </c>
       <c r="D65">
-        <v>-0.05897874226921029</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.0463254235029031</v>
+      </c>
+      <c r="E65">
+        <v>-0.006712100525926639</v>
+      </c>
+      <c r="F65">
+        <v>-0.03752875706151634</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1357795224223347</v>
+        <v>0.1218247846126989</v>
       </c>
       <c r="C66">
-        <v>0.02166744702217498</v>
+        <v>-0.01480129835415379</v>
       </c>
       <c r="D66">
-        <v>0.1296264468480589</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1395076748377178</v>
+      </c>
+      <c r="E66">
+        <v>-0.06458674581822008</v>
+      </c>
+      <c r="F66">
+        <v>-0.02814491148106201</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06298864865448028</v>
+        <v>0.05576962174652971</v>
       </c>
       <c r="C67">
-        <v>0.005907326907908661</v>
+        <v>-0.003485633453101431</v>
       </c>
       <c r="D67">
-        <v>0.05340996509045599</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.0575974223768463</v>
+      </c>
+      <c r="E67">
+        <v>-0.01883724051422863</v>
+      </c>
+      <c r="F67">
+        <v>0.03330723648670249</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1070234908107082</v>
+        <v>0.1168975097969156</v>
       </c>
       <c r="C68">
-        <v>0.02352448766097268</v>
+        <v>-0.03398938776308307</v>
       </c>
       <c r="D68">
-        <v>-0.2636194700502151</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2609596276910044</v>
+      </c>
+      <c r="E68">
+        <v>0.08899724789492314</v>
+      </c>
+      <c r="F68">
+        <v>0.00107469700658717</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.0400868542438322</v>
+        <v>0.03862213957246959</v>
       </c>
       <c r="C69">
-        <v>0.002437138775459753</v>
+        <v>-0.00142515400307242</v>
       </c>
       <c r="D69">
-        <v>0.006205839132758791</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008391881103405155</v>
+      </c>
+      <c r="E69">
+        <v>-0.02414255139730545</v>
+      </c>
+      <c r="F69">
+        <v>-0.0001617377042396039</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06609716200719472</v>
+        <v>0.06723686035360514</v>
       </c>
       <c r="C70">
-        <v>-0.02408603931249532</v>
+        <v>0.02669392910842761</v>
       </c>
       <c r="D70">
-        <v>0.01681326519421017</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02589301734782061</v>
+      </c>
+      <c r="E70">
+        <v>0.02958793065115702</v>
+      </c>
+      <c r="F70">
+        <v>0.1808089245699064</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1261280474029521</v>
+        <v>0.1368592782435649</v>
       </c>
       <c r="C71">
-        <v>0.02803718252215944</v>
+        <v>-0.03863417999936421</v>
       </c>
       <c r="D71">
-        <v>-0.2806701694496857</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2709074750232033</v>
+      </c>
+      <c r="E71">
+        <v>0.09835194342794737</v>
+      </c>
+      <c r="F71">
+        <v>-0.005028281761447041</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1377375855055298</v>
+        <v>0.1446983002928981</v>
       </c>
       <c r="C72">
-        <v>0.02820136486742486</v>
+        <v>-0.02859526856112649</v>
       </c>
       <c r="D72">
-        <v>0.00167325623550028</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004829554631852711</v>
+      </c>
+      <c r="E72">
+        <v>-0.03839926844374352</v>
+      </c>
+      <c r="F72">
+        <v>-0.02751146392248213</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2048188369453081</v>
+        <v>0.2038866321119071</v>
       </c>
       <c r="C73">
-        <v>0.0172328180679942</v>
+        <v>-0.01382212529762212</v>
       </c>
       <c r="D73">
-        <v>0.008377183789170288</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01883775083550839</v>
+      </c>
+      <c r="E73">
+        <v>-0.06716949824452308</v>
+      </c>
+      <c r="F73">
+        <v>-0.04363538440628265</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09310226638561848</v>
+        <v>0.09403736912845177</v>
       </c>
       <c r="C74">
-        <v>0.01466159649049001</v>
+        <v>-0.01412869564132967</v>
       </c>
       <c r="D74">
-        <v>0.01543979769575582</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01682317391493881</v>
+      </c>
+      <c r="E74">
+        <v>-0.04362062534469479</v>
+      </c>
+      <c r="F74">
+        <v>-0.05296199711694197</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1342323273831432</v>
+        <v>0.1261436358560821</v>
       </c>
       <c r="C75">
-        <v>0.03132467857044056</v>
+        <v>-0.02987430341598479</v>
       </c>
       <c r="D75">
-        <v>0.02397131475619099</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02899512091872497</v>
+      </c>
+      <c r="E75">
+        <v>-0.05658113572361094</v>
+      </c>
+      <c r="F75">
+        <v>-0.02231530682433144</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08245216038721714</v>
+        <v>0.09067566130094326</v>
       </c>
       <c r="C77">
-        <v>0.01472861941644916</v>
+        <v>-0.008771581944944982</v>
       </c>
       <c r="D77">
-        <v>0.1062929988519737</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1146857749124528</v>
+      </c>
+      <c r="E77">
+        <v>-0.04586837951511341</v>
+      </c>
+      <c r="F77">
+        <v>-0.03360958910326309</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09884033895858216</v>
+        <v>0.1007843092801348</v>
       </c>
       <c r="C78">
-        <v>0.04375370910902414</v>
+        <v>-0.03923332404073832</v>
       </c>
       <c r="D78">
-        <v>0.110953555816304</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1106005127753545</v>
+      </c>
+      <c r="E78">
+        <v>-0.07565302071814742</v>
+      </c>
+      <c r="F78">
+        <v>-0.05230245863344512</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1655396708722404</v>
+        <v>0.1631225592381871</v>
       </c>
       <c r="C79">
-        <v>0.02594949495168187</v>
+        <v>-0.02508859019914756</v>
       </c>
       <c r="D79">
-        <v>0.00712867432570571</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0120911362871045</v>
+      </c>
+      <c r="E79">
+        <v>-0.04362581959802045</v>
+      </c>
+      <c r="F79">
+        <v>-0.01351078748434587</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08087561011914053</v>
+        <v>0.07954092396929044</v>
       </c>
       <c r="C80">
-        <v>0.001819989439390181</v>
+        <v>0.0003862770011200704</v>
       </c>
       <c r="D80">
-        <v>0.0548626042085149</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05348177312592693</v>
+      </c>
+      <c r="E80">
+        <v>-0.03290318556639954</v>
+      </c>
+      <c r="F80">
+        <v>0.02573746631517945</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1204610575351813</v>
+        <v>0.1166138153369894</v>
       </c>
       <c r="C81">
-        <v>0.03325759244720232</v>
+        <v>-0.03325976631792942</v>
       </c>
       <c r="D81">
-        <v>0.01109240129746959</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01306862740225069</v>
+      </c>
+      <c r="E81">
+        <v>-0.05379277874614925</v>
+      </c>
+      <c r="F81">
+        <v>-0.01871902425375433</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1664672930704666</v>
+        <v>0.1656173865813733</v>
       </c>
       <c r="C82">
-        <v>0.02666555482047178</v>
+        <v>-0.02752611002440469</v>
       </c>
       <c r="D82">
-        <v>0.007292817939698215</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.002514102464856131</v>
+      </c>
+      <c r="E82">
+        <v>-0.0279669057937279</v>
+      </c>
+      <c r="F82">
+        <v>-0.08276616304931167</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06263202474904463</v>
+        <v>0.05740455108954611</v>
       </c>
       <c r="C83">
-        <v>0.005861968869462354</v>
+        <v>-0.003456915774398334</v>
       </c>
       <c r="D83">
-        <v>0.0419943794070037</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.0473196426698149</v>
+      </c>
+      <c r="E83">
+        <v>-0.001290493886936403</v>
+      </c>
+      <c r="F83">
+        <v>0.03593538608664633</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06218513139943049</v>
+        <v>0.05694905474071992</v>
       </c>
       <c r="C84">
-        <v>0.0138806972249657</v>
+        <v>-0.01115288956103909</v>
       </c>
       <c r="D84">
-        <v>0.06958601246675925</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07203079813884847</v>
+      </c>
+      <c r="E84">
+        <v>-0.01424303731758517</v>
+      </c>
+      <c r="F84">
+        <v>-0.01587708503687217</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1394059363157381</v>
+        <v>0.1347058632973067</v>
       </c>
       <c r="C85">
-        <v>0.03019043463281468</v>
+        <v>-0.02993270967470679</v>
       </c>
       <c r="D85">
-        <v>0.008119991605184812</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009513260297563553</v>
+      </c>
+      <c r="E85">
+        <v>-0.03618577904717504</v>
+      </c>
+      <c r="F85">
+        <v>-0.04833195764172081</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1012000185965894</v>
+        <v>0.09379927240139413</v>
       </c>
       <c r="C86">
-        <v>-0.002477631698217636</v>
+        <v>0.005322818948864278</v>
       </c>
       <c r="D86">
-        <v>0.01178926730877292</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05300132544365193</v>
+      </c>
+      <c r="E86">
+        <v>-0.2277111718052154</v>
+      </c>
+      <c r="F86">
+        <v>0.8973905996081331</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09664576834441543</v>
+        <v>0.09280557620426924</v>
       </c>
       <c r="C87">
-        <v>0.02824015542100771</v>
+        <v>-0.0198068847373731</v>
       </c>
       <c r="D87">
-        <v>0.07336106929913111</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09519012786727808</v>
+      </c>
+      <c r="E87">
+        <v>0.05251783369514591</v>
+      </c>
+      <c r="F87">
+        <v>-0.05082628988635828</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06174642011614219</v>
+        <v>0.06070609341721835</v>
       </c>
       <c r="C88">
-        <v>0.005279510354782841</v>
+        <v>-0.002576299591232825</v>
       </c>
       <c r="D88">
-        <v>0.05120685670556529</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04998477451699639</v>
+      </c>
+      <c r="E88">
+        <v>-0.02406975476809928</v>
+      </c>
+      <c r="F88">
+        <v>-0.0144990890847151</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1184759695076924</v>
+        <v>0.1268633139255739</v>
       </c>
       <c r="C89">
-        <v>0.00492349682446797</v>
+        <v>-0.01400720224714814</v>
       </c>
       <c r="D89">
-        <v>-0.2455896671813133</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2436569546404131</v>
+      </c>
+      <c r="E89">
+        <v>0.0928154157686355</v>
+      </c>
+      <c r="F89">
+        <v>0.008497395756154652</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1389033371453134</v>
+        <v>0.1523277548291614</v>
       </c>
       <c r="C90">
-        <v>0.02423342330366133</v>
+        <v>-0.03544023854150991</v>
       </c>
       <c r="D90">
-        <v>-0.2646543358632135</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2679102178234118</v>
+      </c>
+      <c r="E90">
+        <v>0.1138704287485538</v>
+      </c>
+      <c r="F90">
+        <v>0.01059324540073432</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1216500563001238</v>
+        <v>0.1204893886074449</v>
       </c>
       <c r="C91">
-        <v>0.02092412014042349</v>
+        <v>-0.0215568752785876</v>
       </c>
       <c r="D91">
-        <v>-0.01917728300075178</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01697008760247024</v>
+      </c>
+      <c r="E91">
+        <v>-0.05358885152714877</v>
+      </c>
+      <c r="F91">
+        <v>0.001090482373088681</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1397480251463505</v>
+        <v>0.1460986885977111</v>
       </c>
       <c r="C92">
-        <v>0.01509771298723213</v>
+        <v>-0.02683107230132488</v>
       </c>
       <c r="D92">
-        <v>-0.2974187597040583</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2945022420103988</v>
+      </c>
+      <c r="E92">
+        <v>0.1035993654130498</v>
+      </c>
+      <c r="F92">
+        <v>0.01977813704601381</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1408541770677542</v>
+        <v>0.152913300085291</v>
       </c>
       <c r="C93">
-        <v>0.02040896322473219</v>
+        <v>-0.03042064615907686</v>
       </c>
       <c r="D93">
-        <v>-0.2664390265648739</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2640786277915207</v>
+      </c>
+      <c r="E93">
+        <v>0.07659155496721924</v>
+      </c>
+      <c r="F93">
+        <v>-0.00153056127683612</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1346996703949645</v>
+        <v>0.126825027475273</v>
       </c>
       <c r="C94">
-        <v>0.02801335633679531</v>
+        <v>-0.02603307895860126</v>
       </c>
       <c r="D94">
-        <v>0.03819383194629302</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.0400013427684876</v>
+      </c>
+      <c r="E94">
+        <v>-0.0567515812191104</v>
+      </c>
+      <c r="F94">
+        <v>-0.0330656123587109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1248084020868969</v>
+        <v>0.1280476421591283</v>
       </c>
       <c r="C95">
-        <v>0.009797551837373474</v>
+        <v>-0.004191062109507555</v>
       </c>
       <c r="D95">
-        <v>0.0876260683414051</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09799121804257388</v>
+      </c>
+      <c r="E95">
+        <v>-0.05501706284122165</v>
+      </c>
+      <c r="F95">
+        <v>-0.002028020147855833</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1236867370071518</v>
+        <v>0.1188605048218986</v>
       </c>
       <c r="C96">
-        <v>-0.9866473734373323</v>
+        <v>0.9860719583636922</v>
       </c>
       <c r="D96">
-        <v>-0.01574991417042585</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05188144903345728</v>
+      </c>
+      <c r="E96">
+        <v>-0.05134467059310185</v>
+      </c>
+      <c r="F96">
+        <v>-0.04239562695536172</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.195041786657838</v>
+        <v>0.1972461271226121</v>
       </c>
       <c r="C97">
-        <v>-0.004158695678878599</v>
+        <v>0.004477449209897561</v>
       </c>
       <c r="D97">
-        <v>-0.01762164505424157</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02014598773331638</v>
+      </c>
+      <c r="E97">
+        <v>-0.02619963375570213</v>
+      </c>
+      <c r="F97">
+        <v>0.1192593737897103</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1985840049596209</v>
+        <v>0.2048971146961149</v>
       </c>
       <c r="C98">
-        <v>0.01179727850640678</v>
+        <v>-0.008106608661589012</v>
       </c>
       <c r="D98">
-        <v>0.01205272650985687</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01623848129952573</v>
+      </c>
+      <c r="E98">
+        <v>0.07471623425785522</v>
+      </c>
+      <c r="F98">
+        <v>0.09178255903942815</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05547814122682421</v>
+        <v>0.0552686073650708</v>
       </c>
       <c r="C99">
-        <v>-0.001785969424911343</v>
+        <v>0.003871621718109115</v>
       </c>
       <c r="D99">
-        <v>0.02978220664386767</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03859830520091762</v>
+      </c>
+      <c r="E99">
+        <v>-0.02157806838541892</v>
+      </c>
+      <c r="F99">
+        <v>-0.003904096344692148</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.14433557422815</v>
+        <v>0.1309203358715512</v>
       </c>
       <c r="C100">
-        <v>-0.03762413884537261</v>
+        <v>0.05062072162715744</v>
       </c>
       <c r="D100">
-        <v>0.3974919450385592</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3544132460860647</v>
+      </c>
+      <c r="E100">
+        <v>0.8841191510505249</v>
+      </c>
+      <c r="F100">
+        <v>0.1530016036368205</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02545201758577108</v>
+        <v>0.02853398923694516</v>
       </c>
       <c r="C101">
-        <v>0.00974414686427668</v>
+        <v>-0.008869124165860862</v>
       </c>
       <c r="D101">
-        <v>0.02793035918457413</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02981927073246155</v>
+      </c>
+      <c r="E101">
+        <v>-0.0123361678476325</v>
+      </c>
+      <c r="F101">
+        <v>0.01481804778143184</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
